--- a/graphs/graf_6.xlsx
+++ b/graphs/graf_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Jihomoravský kraj</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Jihomoravský kraj</t>
+          <t>Moravskoslezský kraj</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Moravskoslezský kraj</t>
+          <t>Zlínský kraj</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Zlínský kraj</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Ústecký kraj</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ústecký kraj</t>
+          <t>Liberecký kraj</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Liberecký kraj</t>
+          <t>Pardubický kraj</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Pardubický kraj</t>
+          <t>Olomoucký kraj</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Olomoucký kraj</t>
+          <t>Královéhradecký kraj</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Královéhradecký kraj</t>
+          <t>Plzeňský kraj</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Plzeňský kraj</t>
+          <t>Karlovarský kraj</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Karlovarský kraj</t>
+          <t>Jihočeský kraj</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Jihočeský kraj</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Kraj Vysočina</t>
         </is>
@@ -512,45 +507,42 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.735918569394519</v>
+        <v>17.26023348299311</v>
       </c>
       <c r="C2" t="n">
-        <v>17.26023348299311</v>
+        <v>16.90369281697089</v>
       </c>
       <c r="D2" t="n">
-        <v>16.90369281697089</v>
+        <v>12.25613345674553</v>
       </c>
       <c r="E2" t="n">
-        <v>12.25613345674553</v>
+        <v>8.294493966207069</v>
       </c>
       <c r="F2" t="n">
-        <v>8.294493966207069</v>
+        <v>19.04513235287337</v>
       </c>
       <c r="G2" t="n">
-        <v>19.04513235287337</v>
+        <v>10.95244331027649</v>
       </c>
       <c r="H2" t="n">
-        <v>10.95244331027649</v>
+        <v>12.92492700831986</v>
       </c>
       <c r="I2" t="n">
-        <v>12.92492700831986</v>
+        <v>13.5301774882407</v>
       </c>
       <c r="J2" t="n">
-        <v>13.5301774882407</v>
+        <v>13.30378346299846</v>
       </c>
       <c r="K2" t="n">
-        <v>13.30378346299846</v>
+        <v>14.4626167448056</v>
       </c>
       <c r="L2" t="n">
-        <v>14.4626167448056</v>
+        <v>16.42766312596985</v>
       </c>
       <c r="M2" t="n">
-        <v>16.42766312596985</v>
+        <v>16.04052456923336</v>
       </c>
       <c r="N2" t="n">
-        <v>16.04052456923336</v>
-      </c>
-      <c r="O2" t="n">
         <v>12.28167055633623</v>
       </c>
     </row>
@@ -561,45 +553,42 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.18768211726544</v>
+        <v>19.19251558029835</v>
       </c>
       <c r="C3" t="n">
-        <v>19.19251558029835</v>
+        <v>14.15469145567559</v>
       </c>
       <c r="D3" t="n">
-        <v>14.15469145567559</v>
+        <v>17.14266750420889</v>
       </c>
       <c r="E3" t="n">
-        <v>17.14266750420889</v>
+        <v>26.4797046449571</v>
       </c>
       <c r="F3" t="n">
-        <v>26.4797046449571</v>
+        <v>17.0294811494886</v>
       </c>
       <c r="G3" t="n">
-        <v>17.0294811494886</v>
+        <v>24.10443842058402</v>
       </c>
       <c r="H3" t="n">
-        <v>24.10443842058402</v>
+        <v>29.48710161545421</v>
       </c>
       <c r="I3" t="n">
-        <v>29.48710161545421</v>
+        <v>16.13817340543565</v>
       </c>
       <c r="J3" t="n">
-        <v>16.13817340543565</v>
+        <v>21.08695906427475</v>
       </c>
       <c r="K3" t="n">
-        <v>21.08695906427475</v>
+        <v>22.55327923637184</v>
       </c>
       <c r="L3" t="n">
-        <v>22.55327923637184</v>
+        <v>17.51240689337969</v>
       </c>
       <c r="M3" t="n">
-        <v>17.51240689337969</v>
+        <v>23.7396600547177</v>
       </c>
       <c r="N3" t="n">
-        <v>23.7396600547177</v>
-      </c>
-      <c r="O3" t="n">
         <v>26.11880944935534</v>
       </c>
     </row>
@@ -610,45 +599,42 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.18668586709318</v>
+        <v>21.83495551470001</v>
       </c>
       <c r="C4" t="n">
-        <v>21.83495551470001</v>
+        <v>18.78701718945891</v>
       </c>
       <c r="D4" t="n">
-        <v>18.78701718945891</v>
+        <v>22.91206648440324</v>
       </c>
       <c r="E4" t="n">
-        <v>22.91206648440324</v>
+        <v>30.32936448141257</v>
       </c>
       <c r="F4" t="n">
-        <v>30.32936448141257</v>
+        <v>23.4290477429103</v>
       </c>
       <c r="G4" t="n">
-        <v>23.4290477429103</v>
+        <v>19.81352803863396</v>
       </c>
       <c r="H4" t="n">
-        <v>19.81352803863396</v>
+        <v>20.37047342877498</v>
       </c>
       <c r="I4" t="n">
-        <v>20.37047342877498</v>
+        <v>26.24649222097029</v>
       </c>
       <c r="J4" t="n">
-        <v>26.24649222097029</v>
+        <v>14.92770326316663</v>
       </c>
       <c r="K4" t="n">
-        <v>14.92770326316663</v>
+        <v>19.65455192036321</v>
       </c>
       <c r="L4" t="n">
-        <v>19.65455192036321</v>
+        <v>20.29105358299801</v>
       </c>
       <c r="M4" t="n">
-        <v>20.29105358299801</v>
+        <v>19.64336179196678</v>
       </c>
       <c r="N4" t="n">
-        <v>19.64336179196678</v>
-      </c>
-      <c r="O4" t="n">
         <v>20.97689329345406</v>
       </c>
     </row>
@@ -659,45 +645,42 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.833798897205382</v>
+        <v>7.814969491758069</v>
       </c>
       <c r="C5" t="n">
-        <v>7.814969491758069</v>
+        <v>9.510169795670418</v>
       </c>
       <c r="D5" t="n">
-        <v>9.510169795670418</v>
+        <v>10.70343404786937</v>
       </c>
       <c r="E5" t="n">
-        <v>10.70343404786937</v>
+        <v>4.498791444102058</v>
       </c>
       <c r="F5" t="n">
-        <v>4.498791444102058</v>
+        <v>7.445073226941689</v>
       </c>
       <c r="G5" t="n">
-        <v>7.445073226941689</v>
+        <v>4.543468319705021</v>
       </c>
       <c r="H5" t="n">
-        <v>4.543468319705021</v>
+        <v>3.69371662929947</v>
       </c>
       <c r="I5" t="n">
-        <v>3.69371662929947</v>
+        <v>6.732018284011268</v>
       </c>
       <c r="J5" t="n">
-        <v>6.732018284011268</v>
+        <v>8.788418940818369</v>
       </c>
       <c r="K5" t="n">
-        <v>8.788418940818369</v>
+        <v>5.383424129624577</v>
       </c>
       <c r="L5" t="n">
-        <v>5.383424129624577</v>
+        <v>7.425874562270699</v>
       </c>
       <c r="M5" t="n">
-        <v>7.425874562270699</v>
+        <v>9.34756743896949</v>
       </c>
       <c r="N5" t="n">
-        <v>9.34756743896949</v>
-      </c>
-      <c r="O5" t="n">
         <v>3.736830220161774</v>
       </c>
     </row>
@@ -708,45 +691,42 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.572217975394838</v>
+        <v>12.08883184222277</v>
       </c>
       <c r="C6" t="n">
-        <v>12.08883184222277</v>
+        <v>13.09365059873362</v>
       </c>
       <c r="D6" t="n">
-        <v>13.09365059873362</v>
+        <v>9.306635797000599</v>
       </c>
       <c r="E6" t="n">
-        <v>9.306635797000599</v>
+        <v>12.94832559201184</v>
       </c>
       <c r="F6" t="n">
-        <v>12.94832559201184</v>
+        <v>11.9498509970852</v>
       </c>
       <c r="G6" t="n">
-        <v>11.9498509970852</v>
+        <v>11.22809215748323</v>
       </c>
       <c r="H6" t="n">
-        <v>11.22809215748323</v>
+        <v>9.780178404587076</v>
       </c>
       <c r="I6" t="n">
-        <v>9.780178404587076</v>
+        <v>7.811615517450694</v>
       </c>
       <c r="J6" t="n">
-        <v>7.811615517450694</v>
+        <v>18.43660359148967</v>
       </c>
       <c r="K6" t="n">
-        <v>18.43660359148967</v>
+        <v>14.40774688108956</v>
       </c>
       <c r="L6" t="n">
-        <v>14.40774688108956</v>
+        <v>12.49865431730304</v>
       </c>
       <c r="M6" t="n">
-        <v>12.49865431730304</v>
+        <v>8.756693908260669</v>
       </c>
       <c r="N6" t="n">
-        <v>8.756693908260669</v>
-      </c>
-      <c r="O6" t="n">
         <v>11.25984555266288</v>
       </c>
     </row>
@@ -757,45 +737,42 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.94073144081356</v>
+        <v>7.030242527885052</v>
       </c>
       <c r="C7" t="n">
-        <v>7.030242527885052</v>
+        <v>6.118212851770101</v>
       </c>
       <c r="D7" t="n">
-        <v>6.118212851770101</v>
+        <v>8.380719126969664</v>
       </c>
       <c r="E7" t="n">
-        <v>8.380719126969664</v>
+        <v>6.11406600306193</v>
       </c>
       <c r="F7" t="n">
-        <v>6.11406600306193</v>
+        <v>7.250565046198126</v>
       </c>
       <c r="G7" t="n">
-        <v>7.250565046198126</v>
+        <v>8.050767456137239</v>
       </c>
       <c r="H7" t="n">
-        <v>8.050767456137239</v>
+        <v>10.17578107511778</v>
       </c>
       <c r="I7" t="n">
-        <v>10.17578107511778</v>
+        <v>10.90610676441124</v>
       </c>
       <c r="J7" t="n">
-        <v>10.90610676441124</v>
+        <v>7.534296057766826</v>
       </c>
       <c r="K7" t="n">
-        <v>7.534296057766826</v>
+        <v>7.235593687150802</v>
       </c>
       <c r="L7" t="n">
-        <v>7.235593687150802</v>
+        <v>10.75075827640329</v>
       </c>
       <c r="M7" t="n">
-        <v>10.75075827640329</v>
+        <v>5.948038330924588</v>
       </c>
       <c r="N7" t="n">
-        <v>5.948038330924588</v>
-      </c>
-      <c r="O7" t="n">
         <v>6.447573737810338</v>
       </c>
     </row>
@@ -806,45 +783,42 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.411400514590397</v>
+        <v>3.622775622787447</v>
       </c>
       <c r="C8" t="n">
-        <v>3.622775622787447</v>
+        <v>5.896422974938939</v>
       </c>
       <c r="D8" t="n">
-        <v>5.896422974938939</v>
+        <v>6.684369537034093</v>
       </c>
       <c r="E8" t="n">
-        <v>6.684369537034093</v>
+        <v>4.450243579482524</v>
       </c>
       <c r="F8" t="n">
-        <v>4.450243579482524</v>
+        <v>5.254246023913542</v>
       </c>
       <c r="G8" t="n">
-        <v>5.254246023913542</v>
+        <v>5.24047278763706</v>
       </c>
       <c r="H8" t="n">
-        <v>5.24047278763706</v>
+        <v>5.509603174375344</v>
       </c>
       <c r="I8" t="n">
-        <v>5.509603174375344</v>
+        <v>7.179900021809961</v>
       </c>
       <c r="J8" t="n">
-        <v>7.179900021809961</v>
+        <v>5.227903300515306</v>
       </c>
       <c r="K8" t="n">
-        <v>5.227903300515306</v>
+        <v>8.189367636801592</v>
       </c>
       <c r="L8" t="n">
-        <v>8.189367636801592</v>
+        <v>7.376864959851094</v>
       </c>
       <c r="M8" t="n">
-        <v>7.376864959851094</v>
+        <v>7.263237543856299</v>
       </c>
       <c r="N8" t="n">
-        <v>7.263237543856299</v>
-      </c>
-      <c r="O8" t="n">
         <v>4.355743867375636</v>
       </c>
     </row>
@@ -855,45 +829,42 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.13156461824269</v>
+        <v>11.1554759373552</v>
       </c>
       <c r="C9" t="n">
-        <v>11.1554759373552</v>
+        <v>15.53614231678153</v>
       </c>
       <c r="D9" t="n">
-        <v>15.53614231678153</v>
+        <v>12.61397404576862</v>
       </c>
       <c r="E9" t="n">
-        <v>12.61397404576862</v>
+        <v>6.885010288764899</v>
       </c>
       <c r="F9" t="n">
-        <v>6.885010288764899</v>
+        <v>8.596603460589172</v>
       </c>
       <c r="G9" t="n">
-        <v>8.596603460589172</v>
+        <v>16.066789509543</v>
       </c>
       <c r="H9" t="n">
-        <v>16.066789509543</v>
+        <v>8.058218664071283</v>
       </c>
       <c r="I9" t="n">
-        <v>8.058218664071283</v>
+        <v>11.45551629767019</v>
       </c>
       <c r="J9" t="n">
-        <v>11.45551629767019</v>
+        <v>10.69433231896999</v>
       </c>
       <c r="K9" t="n">
-        <v>10.69433231896999</v>
+        <v>8.113419763792836</v>
       </c>
       <c r="L9" t="n">
-        <v>8.113419763792836</v>
+        <v>7.71672428182432</v>
       </c>
       <c r="M9" t="n">
-        <v>7.71672428182432</v>
+        <v>9.260916362071121</v>
       </c>
       <c r="N9" t="n">
-        <v>9.260916362071121</v>
-      </c>
-      <c r="O9" t="n">
         <v>14.82263332284374</v>
       </c>
     </row>

--- a/graphs/graf_6.xlsx
+++ b/graphs/graf_6.xlsx
@@ -727,7 +727,7 @@
         <v>8.756693908260669</v>
       </c>
       <c r="N6" t="n">
-        <v>11.25984555266288</v>
+        <v>11.25984555266287</v>
       </c>
     </row>
     <row r="7">
